--- a/data/income_statement/2digits/total/45_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/45_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>45-Wholesale and retail trade and repair of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>45-Wholesale and retail trade and repair of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>49442029.72257001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>68448428.36161999</v>
+        <v>68448562.89698</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>91461559.89973001</v>
+        <v>91463197.92176999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>97846623.26620999</v>
+        <v>98002032.75687999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>110855548.75183</v>
+        <v>111291591.17022</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>127797039.58633</v>
+        <v>128213796.58586</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>158961433.203</v>
+        <v>160701286.79096</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>172542187.67941</v>
+        <v>180382945.89202</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>220131685.86062</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>238083172.73096</v>
+        <v>238502129.12213</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>255808158.70085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>257375669.51091</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>419186569.757</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>45265037.81599999</v>
+        <v>45265037.816</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>63604854.31147001</v>
+        <v>63604984.84683</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>85230865.96478999</v>
+        <v>85232497.52813999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>90140571.98730002</v>
+        <v>90290078.87859002</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>102530507.67332</v>
+        <v>102947176.58617</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>117228909.62115</v>
+        <v>117627288.54793</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>146908375.36059</v>
+        <v>148526155.3381</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>159248569.32128</v>
+        <v>165995961.6863</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>200984391.39348</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>210550144.63213</v>
+        <v>210759320.60848</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>223738802.7688</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>225174772.65795</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>371592387.305</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>2318540.59463</v>
@@ -1037,73 +953,83 @@
         <v>3511397.2604</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>4528696.286159999</v>
+        <v>4528696.28616</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>5039926.075440001</v>
+        <v>5039952.4257</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>6724474.13378</v>
+        <v>6727183.023870001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>7239643.00215</v>
+        <v>7305151.175379999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>8051317.156679999</v>
+        <v>9019286.30859</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>12672966.54047</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>20457572.71999</v>
+        <v>20660943.19529</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>24586067.41913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>24684416.35344</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>36896650.723</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1858451.31194</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2189953.64131</v>
+        <v>2189957.64131</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2719296.67454</v>
+        <v>2719303.13323</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>3177354.99275</v>
+        <v>3183257.59213</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>3285115.00307</v>
+        <v>3304462.158349999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>3843655.8314</v>
+        <v>3859325.01406</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>4813414.840259999</v>
+        <v>4869980.27748</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>5242301.20145</v>
+        <v>5367697.89713</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>6474327.92667</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>7075455.378839999</v>
+        <v>7081865.318360001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>7483288.51292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>7516480.49952</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>10697531.729</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>2178694.40354</v>
@@ -1112,76 +1038,86 @@
         <v>3025680.92562</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3983504.68894</v>
+        <v>3983513.676099999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4690820.778929999</v>
+        <v>4740481.45899</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>5320607.647330001</v>
+        <v>5327496.699879999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>6066269.23639</v>
+        <v>6074574.27487</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>7218479.11646</v>
+        <v>7288911.172990001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>7897403.235269999</v>
+        <v>7989703.76484</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>9373946.467389999</v>
+        <v>9373946.467390001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>11188848.54114</v>
+        <v>11189285.63821</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>11478308.98912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>11526227.8676</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>16991413.947</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>410143.51435</v>
+        <v>410143.5143500001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>477828.92491</v>
+        <v>477828.9249099999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>661438.1288399999</v>
+        <v>661447.116</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>744011.4352200001</v>
+        <v>744329.0192000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>858526.84713</v>
+        <v>858988.6239199999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1023993.10633</v>
+        <v>1026439.52954</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1041064.64197</v>
+        <v>1045350.04397</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1340490.89262</v>
+        <v>1354963.33943</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>1474523.23688</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>2201502.19602</v>
+        <v>2201765.21541</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2154948.50834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2161663.02599</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>2555404.73</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1498277.68865</v>
@@ -1193,268 +1129,303 @@
         <v>2530927.20591</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>3141403.10432</v>
+        <v>3148065.47885</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3562514.66839</v>
+        <v>3568788.27271</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3907535.08732</v>
+        <v>3913393.70259</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>4816081.870749999</v>
+        <v>4838008.64546</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>5022893.77428</v>
+        <v>5085138.76222</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>6206017.81622</v>
+        <v>6206017.816220001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>7106952.615459999</v>
+        <v>7107122.355879999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>7655602.97398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>7656775.12181</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>11192881.464</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>270273.20054</v>
+        <v>270273.2005400001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>519697.9738699999</v>
+        <v>519697.97387</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>791139.3541899999</v>
+        <v>791139.3541900001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>805406.2393899999</v>
+        <v>848086.9609399999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>899566.1318099999</v>
+        <v>899719.8032499999</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>1134741.04274</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1361332.60374</v>
+        <v>1405552.48356</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1534018.56837</v>
+        <v>1549601.66319</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>1693405.41429</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1880393.72966</v>
+        <v>1880398.06692</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1667757.5068</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1707789.7198</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3243127.753</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>47263335.31902999</v>
+        <v>47263335.31903</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>65422747.436</v>
+        <v>65422881.97136</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>87478055.21079001</v>
+        <v>87479684.24566998</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>93155802.48728</v>
+        <v>93261551.29788999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>105534941.1045</v>
+        <v>105964094.47034</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>121730770.34994</v>
+        <v>122139222.31099</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>151742954.08654</v>
+        <v>153412375.61797</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>164644784.44414</v>
+        <v>172393242.12718</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>210757739.39323</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>226894324.18982</v>
+        <v>227312843.48392</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>244329849.71173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>245849441.64331</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>402195155.81</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>41681653.58897001</v>
+        <v>41681653.58897</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>58465546.60158</v>
+        <v>58465624.15211</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>78892677.38703001</v>
+        <v>78894030.33665997</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>83802303.47510998</v>
+        <v>83897162.26741001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>95125374.22254001</v>
+        <v>95516194.00822</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>109932904.30455</v>
+        <v>110300214.23005</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>137320048.076</v>
+        <v>138842198.01779</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>148496187.27674</v>
+        <v>155670978.35197</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>189777263.30071</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>202037096.23437</v>
+        <v>202506427.09387</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>218036438.2984</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>219422678.18671</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>364135440.26</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>583534.48835</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>887138.02877</v>
+        <v>887183.5596099999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1320661.42398</v>
+        <v>1321381.42398</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2543173.82916</v>
+        <v>2544153.022179999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1505977.0309</v>
+        <v>1518766.66613</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1807605.88865</v>
+        <v>1831536.07996</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2876336.4365</v>
+        <v>2913718.05125</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2995863.2278</v>
+        <v>3026591.23845</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>4292245.92999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4938838.20303</v>
+        <v>4944079.31925</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>5119871.78395</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5113119.57427</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>6311361.38</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>39170739.15198001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>55342859.31559</v>
+        <v>55342884.65874001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>74896848.20861001</v>
+        <v>74897479.51523</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>78093195.53532001</v>
+        <v>78172582.64105</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>89881418.63351001</v>
+        <v>90242042.85114999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>103775633.03738</v>
+        <v>104105139.51159</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>129426113.19888</v>
+        <v>130780232.11212</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>139395999.66338</v>
+        <v>146514928.01861</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>177631007.62515</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>188265916.33132</v>
+        <v>188654233.25668</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>203323275.51668</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>204649873.4152</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>346520383.457</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1875824.40628</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2073468.10611</v>
+        <v>2073474.78265</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2513937.81984</v>
+        <v>2513939.46285</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2956689.08829</v>
+        <v>2970516.67029</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3442614.11833</v>
+        <v>3459579.93868</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>4020913.97576</v>
+        <v>4034787.23574</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4530124.504789999</v>
+        <v>4650976.61396</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>5468378.56025</v>
+        <v>5490227.87087</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>6879603.774650001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>7786797.27086</v>
+        <v>7862011.63917</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>8431307.086859999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>8492890.927720001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>9499740.619999999</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>51555.54236</v>
@@ -1466,112 +1437,127 @@
         <v>161229.9346</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>209245.02234</v>
+        <v>209909.93389</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>295364.4398</v>
+        <v>295804.55226</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>328751.40276</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>487473.93583</v>
+        <v>497271.2404600001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>635945.82531</v>
+        <v>639231.22404</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>974405.9709199999</v>
+        <v>974405.9709200001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1045544.42916</v>
+        <v>1046102.87877</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1161983.91091</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1166794.26952</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1803954.803</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>5581681.730059999</v>
+        <v>5581681.73006</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>6957200.834420001</v>
+        <v>6957257.81925</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>8585377.823760001</v>
+        <v>8585653.909010001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>9353499.01217</v>
+        <v>9364389.030479999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>10409566.88196</v>
+        <v>10447900.46212</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>11797866.04539</v>
+        <v>11839008.08094</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>14422906.01054</v>
+        <v>14570177.60018</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>16148597.1674</v>
+        <v>16722263.77521</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>20980476.09251999</v>
+        <v>20980476.09252</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>24857227.95544999</v>
+        <v>24806416.39005</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>26293411.41333001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>26426763.4566</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>38059715.55</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>4356237.24491</v>
+        <v>4356237.244910001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>5250729.627310001</v>
+        <v>5250779.095620002</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>6291754.40966</v>
+        <v>6291953.221149999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>7262899.95604</v>
+        <v>7272015.68421</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>7813813.447829998</v>
+        <v>7845517.726530001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>8782704.041229999</v>
+        <v>8813197.030270001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>10288217.20201</v>
+        <v>10401748.67086</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>11956430.38468</v>
+        <v>12279476.69981</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>14355623.69256</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>16762158.40174</v>
+        <v>16813944.99383</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>18184279.00636</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>18313487.07986</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>22565574.994</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>3472.9461</v>
@@ -1580,232 +1566,262 @@
         <v>1989.1574</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>5266.549480000001</v>
+        <v>5266.54948</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>3601.59612</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>8713.333169999998</v>
+        <v>8713.333170000002</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>7286.87128</v>
+        <v>7286.871279999999</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>22194.06844</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4501.818480000001</v>
+        <v>4501.81848</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>20445.46406</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>10525.61929</v>
+        <v>10550.23799</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>6293.722849999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5935.65935</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>6776.714</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1835031.88684</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>2413346.20359</v>
+        <v>2413353.40662</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2821153.26229</v>
+        <v>2821164.88938</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>3362310.248980001</v>
+        <v>3366772.17398</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>3389544.53619</v>
+        <v>3394940.72762</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>3759146.00994</v>
+        <v>3765526.35555</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>4577058.902799999</v>
+        <v>4628638.08526</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>5291978.94372</v>
+        <v>5466733.93054</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>6428481.50181</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>7519520.89786</v>
+        <v>7522413.671949999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>7906496.86946</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>7931826.964639999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>9816182.412</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>2517732.41197</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>2835394.26632</v>
+        <v>2835436.5316</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>3465334.597889999</v>
+        <v>3465521.78229</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>3896988.11094</v>
+        <v>3901641.91411</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>4415555.578469999</v>
+        <v>4441863.66574</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>5016271.160010001</v>
+        <v>5040383.803440001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>5688964.23077</v>
+        <v>5750916.51716</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>6659949.62248</v>
+        <v>6808240.95079</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>7906696.726690001</v>
+        <v>7906696.72669</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>9232111.884589998</v>
+        <v>9280981.083889998</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>10271488.41405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>10375724.45587</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>12742615.868</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>1225444.48515</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1706471.20711</v>
+        <v>1706478.72363</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2293623.4141</v>
+        <v>2293700.687859999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2090599.05613</v>
+        <v>2092373.34627</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2595753.434129999</v>
+        <v>2602382.735589999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>3015162.00416</v>
+        <v>3025811.05067</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4134688.80853</v>
+        <v>4168428.92932</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>4192166.78272</v>
+        <v>4442787.0754</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>6624852.399959999</v>
+        <v>6624852.39996</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>8095069.553709999</v>
+        <v>7992471.396220001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>8109132.406969999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>8113276.376740001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>15494140.556</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5877804.001789999</v>
+        <v>5877804.00179</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>4072698.63684</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1947508.57648</v>
+        <v>1947508.30749</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2011542.27584</v>
+        <v>2013976.87274</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>5304863.755039999</v>
+        <v>5307553.41166</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3498513.82494</v>
+        <v>3500916.81165</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4844084.501440001</v>
+        <v>4860095.81874</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>5498971.353119999</v>
+        <v>6309694.20027</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>6951757.00795</v>
+        <v>6951757.007949999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>11323235.96836</v>
+        <v>11479616.06667</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>16778700.07707</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>16808733.73605</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>14038159.706</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>21169.7467</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>49389.54951999999</v>
+        <v>49389.54952000001</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>28324.18568</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>67277.27740000001</v>
+        <v>67277.27739999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>37551.83986</v>
+        <v>37569.41236</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>74016.71623999999</v>
+        <v>74076.62774</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>131060.74139</v>
+        <v>131066.17953</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>101646.69576</v>
+        <v>101933.08062</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>138305.23334</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>83190.08109000002</v>
+        <v>109160.87278</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>126594.38974</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>136070.27084</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>38898.673</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>3635.69224</v>
@@ -1817,7 +1833,7 @@
         <v>21462.52613</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>9841.096520000001</v>
+        <v>9841.096519999999</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>8371.64832</v>
@@ -1826,7 +1842,7 @@
         <v>13736.61034</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>11331.37174</v>
+        <v>13739.94474</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>31334.94495</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>112583.05243</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>127428.135</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>133706.15931</v>
@@ -1856,34 +1877,39 @@
         <v>108640.42114</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>139211.51331</v>
+        <v>139241.91903</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>133930.34724</v>
+        <v>134685.75558</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>159678.53433</v>
+        <v>160021.83429</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>196273.67021</v>
+        <v>198613.92916</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>219648.57513</v>
+        <v>229975.82995</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>346456.87434</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>676599.45258</v>
+        <v>681060.31805</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1034883.79444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1039019.88602</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1191554.798</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>46635.67146</v>
@@ -1898,31 +1924,36 @@
         <v>54577.77224000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>68187.60214</v>
+        <v>68919.36916000002</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>64701.96474999999</v>
+        <v>64706.62035</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>91737.50684</v>
+        <v>92084.39242</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>105820.78574</v>
+        <v>111238.80663</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>133888.75968</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>163475.87235</v>
+        <v>163478.87235</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>179785.67496</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>179841.07742</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>201610.884</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>22085.39901</v>
@@ -1934,37 +1965,42 @@
         <v>20373.88532</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>22168.66647</v>
+        <v>22175.60225</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>34611.68546000001</v>
+        <v>34722.4519</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>62348.04081999999</v>
+        <v>62459.53081999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>44303.63535</v>
+        <v>44629.71773999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>61253.61666000001</v>
+        <v>61864.72744</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>33846.45213999999</v>
+        <v>33846.45214</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>107719.53383</v>
+        <v>107739.40653</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>62498.74243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>62424.90474999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>62698.318</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>7602.534959999999</v>
+        <v>7602.53496</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>3640.97074</v>
@@ -1973,16 +2009,16 @@
         <v>6462.27666</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>8796.038339999999</v>
+        <v>8803.34996</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>37820.36149</v>
+        <v>37824.27925</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>9056.7847</v>
+        <v>9093.404219999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>90599.67879000001</v>
+        <v>90712.65353</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>10434.62188</v>
@@ -1991,16 +2027,21 @@
         <v>16663.53819</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>36834.34999</v>
+        <v>36865.13224</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>56646.65939999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>56669.15904999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>59255.013</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>5266186.284270001</v>
@@ -2012,40 +2053,45 @@
         <v>1150151.89984</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1045749.59933</v>
+        <v>1047549.8686</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>4197611.897499999</v>
+        <v>4198122.56581</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2211687.7102</v>
+        <v>2211975.76523</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3096821.27887</v>
+        <v>3102993.2559</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3676448.84007</v>
+        <v>4419075.24087</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>4654005.47211</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>8120826.767100001</v>
+        <v>8225119.37549</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>13008352.57712</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>13017312.45697</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>9926011.813999999</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>5177.697180000001</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>4302.131850000001</v>
+        <v>4302.13185</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>14182.57687</v>
@@ -2063,7 +2109,7 @@
         <v>29253.83882</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>71704.28559999999</v>
+        <v>72375.60952000001</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>29233.29866</v>
@@ -2072,13 +2118,18 @@
         <v>120248.67358</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>156332.13505</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>156364.4831</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>108561.899</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>600.88705</v>
@@ -2093,7 +2144,7 @@
         <v>329.88354</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>496.65256</v>
+        <v>496.6525600000001</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>10017.56123</v>
@@ -2102,22 +2153,27 @@
         <v>1429.29219</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>912.04702</v>
+        <v>912.0470199999999</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>2571.75322</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>986.6771999999999</v>
+        <v>1090.74889</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>1816.3966</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>2429.442</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>371003.92961</v>
@@ -2126,37 +2182,42 @@
         <v>421503.67409</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>546679.6432100001</v>
+        <v>546679.3742199999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>637478.4719999998</v>
+        <v>638068.14651</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>763843.4221800002</v>
+        <v>764402.97843</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>864575.7465499999</v>
+        <v>866134.7016499998</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1151273.48724</v>
+        <v>1155572.61471</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1219766.94031</v>
+        <v>1270549.29139</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>1572195.13032</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1976312.3949</v>
+        <v>1997810.50102</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2039206.6549</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2046632.04887</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2319710.73</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>5538346.321409999</v>
@@ -2168,34 +2229,39 @@
         <v>1693384.8242</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1464248.05798</v>
+        <v>1465746.43144</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>5115595.563420001</v>
+        <v>5118907.8134</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2917982.09201</v>
+        <v>2918970.55724</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4183905.39322</v>
+        <v>4193294.86823</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4879957.58433</v>
+        <v>5752056.89373</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>6608663.22773</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>11102437.42962</v>
+        <v>11166027.72909</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>14856100.2158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>14865531.70118</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>11454921.191</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>35068.72279</v>
@@ -2204,37 +2270,42 @@
         <v>51624.55402</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>71282.40672999999</v>
+        <v>71282.40673</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>114378.08019</v>
+        <v>114378.19599</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>105700.78119</v>
+        <v>105942.07537</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>131569.24865</v>
+        <v>131592.44074</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>93847.69868999998</v>
+        <v>93958.77016</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>86225.27503</v>
+        <v>199315.05721</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>301364.22249</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>358253.80612</v>
+        <v>358525.9144</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>349950.48158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>350001.86337</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>296314.474</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>88195.97186000002</v>
@@ -2249,37 +2320,42 @@
         <v>101465.18238</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>85424.00794999998</v>
+        <v>85535.54712999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>124546.79729</v>
+        <v>124833.40469</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>127570.14302</v>
+        <v>128092.30646</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>139373.36661</v>
+        <v>140377.94626</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>147354.72432</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>279907.28503</v>
+        <v>279981.03503</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>191475.91253</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>191658.34727</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>282086.947</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2715.20683</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>825.8</v>
+        <v>825.8000000000001</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>933.6947599999999</v>
@@ -2288,10 +2364,10 @@
         <v>516.10847</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>5307.266980000001</v>
+        <v>5307.266979999999</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>3215.922770000001</v>
+        <v>3215.92277</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>12693.0935</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>92207.90549</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>20033.053</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>5227865.72585</v>
+        <v>5227865.725849999</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>3377163.79049</v>
@@ -2324,34 +2405,39 @@
         <v>1293820.31547</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>934198.3310300001</v>
+        <v>935695.3539400001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>4435665.60956</v>
+        <v>4438625.02617</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2087977.21208</v>
+        <v>2088571.66495</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3368091.49648</v>
+        <v>3374901.79626</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>4048434.770539999</v>
+        <v>4784766.48659</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>5258691.099279999</v>
+        <v>5258691.09928</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>9265919.91815</v>
+        <v>9327641.93293</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>13152753.26692</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>13161562.42246</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>9808513.094000001</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2586.3403</v>
@@ -2375,7 +2461,7 @@
         <v>30225.15384</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>32854.76771</v>
+        <v>33370.95842</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>72825.54694</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>142463.36186</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>131392.436</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>443.0042300000001</v>
@@ -2420,16 +2511,21 @@
         <v>7.404409999999999</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>63.76974</v>
+        <v>63.76973999999999</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>49.00822</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>175.59</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>181471.34955</v>
@@ -2441,115 +2537,130 @@
         <v>253603.92302</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>286270.08335</v>
+        <v>286271.3181</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>458409.4143500001</v>
+        <v>458409.4143600001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>542713.76699</v>
+        <v>542797.97986</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>551473.46072</v>
+        <v>553419.4010399999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>569136.82463</v>
+        <v>590293.8654400001</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>815481.91364</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>995222.8660400002</v>
+        <v>996745.2924499998</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>927200.2791999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>927588.7925100001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>916405.597</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>898473.5344399998</v>
+        <v>898473.5344400001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>678253.1603599999</v>
+        <v>678253.16036</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>1115939.69214</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1218402.52379</v>
+        <v>1219636.4599</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1569585.48227</v>
+        <v>1574132.32965</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1809651.9337</v>
+        <v>1816672.23938</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2392331.61862</v>
+        <v>2420445.18917</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>3208823.92436</v>
+        <v>3231291.26864</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>4265273.49972</v>
+        <v>4265273.499720001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>7977548.269780001</v>
+        <v>7978945.524840001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>7308609.179450002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>7333675.12575</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5872600.556</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>837354.74087</v>
+        <v>837354.7408699999</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>619759.0179900001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>999277.7127799999</v>
+        <v>999277.7127799998</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1168216.27183</v>
+        <v>1168367.1266</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1476622.35647</v>
+        <v>1480806.82751</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1704356.64371</v>
+        <v>1711376.94939</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2239828.66875</v>
+        <v>2267942.2393</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>3018648.93987</v>
+        <v>3040768.6592</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>3982359.146269999</v>
+        <v>3982359.14627</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>7517682.45857</v>
+        <v>7518984.688500001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>7006559.45007</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>7031385.60022</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5555953.947</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>61118.79357</v>
+        <v>61118.79356999999</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>58494.14237</v>
@@ -2558,10 +2669,10 @@
         <v>116661.97936</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>50186.25196</v>
+        <v>51269.3333</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>92963.12579999999</v>
+        <v>93325.50214</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>105295.28999</v>
@@ -2570,61 +2681,71 @@
         <v>152502.94987</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>190174.98449</v>
+        <v>190522.60944</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>282914.35345</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>459865.81121</v>
+        <v>459960.83634</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>302049.72938</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>302289.52553</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>316646.609</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>666428.63109</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1420301.46524</v>
+        <v>1420308.98176</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1431807.47424</v>
+        <v>1431884.47901</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1419490.7502</v>
+        <v>1420967.32767</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1215436.14348</v>
+        <v>1216896.0042</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1786041.80339</v>
+        <v>1791085.0657</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2402536.29813</v>
+        <v>2414784.69066</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1602356.62715</v>
+        <v>1769133.1133</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>2702672.68046</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>338319.8226700001</v>
+        <v>327114.20896</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2723123.088789999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2722803.285860001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>12204778.515</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>307397.90007</v>
@@ -2633,37 +2754,42 @@
         <v>359341.98145</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>849410.0327</v>
+        <v>849410.0327000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>534371.4027000001</v>
+        <v>536662.7220000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>807012.9987800003</v>
+        <v>813184.1364600001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>946649.69782</v>
+        <v>950070.5096199999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>959517.20762</v>
+        <v>969086.71043</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1083776.89202</v>
+        <v>1125990.65709</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1298664.77191</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1670169.97334</v>
+        <v>1673932.44849</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1719731.515919999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1741562.03225</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2041478.03</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>3010.53472</v>
@@ -2678,34 +2804,39 @@
         <v>6967.864</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>14289.47694</v>
+        <v>14998.28443</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>20608.54158</v>
+        <v>21922.26907</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>17660.60228</v>
+        <v>18952.71452</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>20688.55411</v>
+        <v>24597.87474</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>13880.77771</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>15721.52502</v>
+        <v>15723.3337</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>19854.93838999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>19954.17651</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>16843.51</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>304387.3653500001</v>
+        <v>304387.36535</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>353868.29883</v>
@@ -2714,73 +2845,83 @@
         <v>813542.68831</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>527403.5387</v>
+        <v>529694.858</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>792723.5218400002</v>
+        <v>798185.8520299998</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>926041.1562400002</v>
+        <v>928148.2405500001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>941856.6053399999</v>
+        <v>950133.9959099998</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1063088.33791</v>
+        <v>1101392.78235</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1284783.9942</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1654448.44832</v>
+        <v>1658209.11479</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1699876.57753</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1721607.85574</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2024634.52</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>170333.58461</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>303298.8956</v>
+        <v>303299.13911</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1048843.98636</v>
+        <v>1048844.32506</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>218365.00929</v>
+        <v>218497.75542</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>310567.62547</v>
+        <v>313028.10473</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>648765.9491</v>
+        <v>649334.04126</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>346633.64418</v>
+        <v>348618.83945</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>802478.63824</v>
+        <v>812557.2490500001</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>540439.06999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1079617.36272</v>
+        <v>1090487.49079</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>786557.8831</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>796447.83358</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>986252.698</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2000.58943</v>
@@ -2792,7 +2933,7 @@
         <v>2005.78887</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>4408.848150000001</v>
+        <v>4408.84815</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>2660.47824</v>
@@ -2801,7 +2942,7 @@
         <v>4228.61104</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1298.8811</v>
+        <v>1638.81759</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>12333.7689</v>
@@ -2810,22 +2951,27 @@
         <v>15682.38949</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>3294.14858</v>
+        <v>3319.39005</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>10824.30223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>10974.18489</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>6785.657</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>11665.57899</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>7548.251690000001</v>
+        <v>7548.251689999999</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>19496.94292</v>
@@ -2834,184 +2980,207 @@
         <v>12413.65201</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>12358.711</v>
+        <v>12465.72181</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>13068.33192</v>
+        <v>13072.28422</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>10539.1382</v>
+        <v>10709.01266</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>21743.26874000001</v>
+        <v>22267.03766000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>34131.74942999999</v>
+        <v>34131.74943</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>16412.94992</v>
+        <v>16970.59525</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>30331.26696999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>30348.61104</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>117113.047</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>156667.41619</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>279132.1178300001</v>
+        <v>279132.3613400001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1027341.25457</v>
+        <v>1027341.59327</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>201542.50913</v>
+        <v>201675.25526</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>295548.4362299999</v>
+        <v>297901.90468</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>631469.0061400001</v>
+        <v>632033.1459999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>334795.62488</v>
+        <v>336271.0092</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>768401.6006</v>
+        <v>777956.44249</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>490624.93107</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1059910.26422</v>
+        <v>1070197.50549</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>745402.3139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>755125.03765</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>862353.9939999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>803492.9465500001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1476344.55109</v>
+        <v>1476351.8241</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1232373.52058</v>
+        <v>1232450.18665</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1735497.14361</v>
+        <v>1739132.29425</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1711881.51679</v>
+        <v>1717052.03593</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2083925.55211</v>
+        <v>2091821.53406</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3015419.86157</v>
+        <v>3035252.56164</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1883654.88093</v>
+        <v>2082566.52134</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>3460898.38238</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>928872.4332900001</v>
+        <v>910559.1666599998</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>3656296.721609999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>3667917.48453</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>13260003.847</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>163430.98922</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>291134.2894099999</v>
+        <v>291135.7927099999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>354670.0589200001</v>
+        <v>354670.12934</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>372994.8159</v>
+        <v>373034.30687</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>403838.7859399999</v>
+        <v>405428.1463399999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>494438.71086</v>
+        <v>496183.18621</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>581397.2081400001</v>
+        <v>585641.7369700001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>495445.89939</v>
+        <v>532066.74386</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>697145.98278</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>820896.77885</v>
+        <v>832125.44453</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1004763.49286</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1014908.23558</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2544514.637</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>640061.95733</v>
+        <v>640061.9573299999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1185210.26168</v>
+        <v>1185216.03139</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>877703.4616599999</v>
+        <v>877780.0573100002</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1362502.32771</v>
+        <v>1366097.98738</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1308042.73085</v>
+        <v>1311623.88959</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1589486.84125</v>
+        <v>1595638.34785</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2434022.65343</v>
+        <v>2449610.82467</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1388208.98154</v>
+        <v>1550499.77748</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>2763752.3996</v>
+        <v>2763752.399600001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>107975.6544400001</v>
+        <v>78433.72213000013</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2651533.22875</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2653009.24895</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>10715489.21</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>16676</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>17028</v>
+        <v>17029</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>17309</v>
+        <v>17312</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>17157</v>
+        <v>17168</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>17199</v>
+        <v>17227</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>17224</v>
+        <v>17276</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>17610</v>
+        <v>17756</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>18382</v>
+        <v>18490</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>19620</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>19143</v>
+        <v>20963</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>20021</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>22561</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>25516</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>